--- a/parabolic/2025/08/20/parabolic.xlsx
+++ b/parabolic/2025/08/20/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>3656</t>
+          <t>3083</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>131</v>
+        <v>798</v>
       </c>
       <c r="D2" t="n">
-        <v>1010100</v>
+        <v>145600</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>3671</t>
+          <t>3656</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>336</v>
+        <v>131</v>
       </c>
       <c r="D3" t="n">
-        <v>101800</v>
+        <v>1268700</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>3880</t>
+          <t>3671</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>869</v>
+        <v>336</v>
       </c>
       <c r="D4" t="n">
-        <v>193800</v>
+        <v>166900</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>4188</t>
+          <t>3880</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>806.5999755859375</v>
+        <v>870</v>
       </c>
       <c r="D5" t="n">
-        <v>2043000</v>
+        <v>239600</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>4996</t>
+          <t>4188</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>848</v>
+        <v>804.7000122070312</v>
       </c>
       <c r="D6" t="n">
-        <v>246800</v>
+        <v>2803300</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>6047</t>
+          <t>4996</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>701</v>
+        <v>845</v>
       </c>
       <c r="D7" t="n">
-        <v>125200</v>
+        <v>282100</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>7066</t>
+          <t>6047</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>673</v>
+        <v>699</v>
       </c>
       <c r="D8" t="n">
-        <v>308300</v>
+        <v>168500</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>8562</t>
+          <t>7066</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>243</v>
+        <v>649</v>
       </c>
       <c r="D9" t="n">
-        <v>295700</v>
+        <v>418600</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>9812</t>
+          <t>8562</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,16 +666,39 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>332</v>
+        <v>244</v>
       </c>
       <c r="D10" t="n">
-        <v>130200</v>
+        <v>355300</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>9812</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>330</v>
+      </c>
+      <c r="D11" t="n">
+        <v>170600</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/08/20/parabolic.xlsx
+++ b/parabolic/2025/08/20/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>3083</t>
+          <t>2652</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>798</v>
+        <v>331</v>
       </c>
       <c r="D2" t="n">
-        <v>145600</v>
+        <v>266800</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>3656</t>
+          <t>3083</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>131</v>
+        <v>789</v>
       </c>
       <c r="D3" t="n">
-        <v>1268700</v>
+        <v>166000</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>3671</t>
+          <t>3656</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>336</v>
+        <v>135</v>
       </c>
       <c r="D4" t="n">
-        <v>166900</v>
+        <v>2388500</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>3880</t>
+          <t>3671</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>870</v>
+        <v>339</v>
       </c>
       <c r="D5" t="n">
-        <v>239600</v>
+        <v>196800</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>4188</t>
+          <t>3880</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>804.7000122070312</v>
+        <v>868</v>
       </c>
       <c r="D6" t="n">
-        <v>2803300</v>
+        <v>277500</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>4996</t>
+          <t>4188</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>845</v>
+        <v>802.9000244140625</v>
       </c>
       <c r="D7" t="n">
-        <v>282100</v>
+        <v>3640700</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>6047</t>
+          <t>4996</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>699</v>
+        <v>851</v>
       </c>
       <c r="D8" t="n">
-        <v>168500</v>
+        <v>362700</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>7066</t>
+          <t>6047</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>649</v>
+        <v>710</v>
       </c>
       <c r="D9" t="n">
-        <v>418600</v>
+        <v>233600</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>8562</t>
+          <t>7066</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>244</v>
+        <v>673</v>
       </c>
       <c r="D10" t="n">
-        <v>355300</v>
+        <v>496300</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>9812</t>
+          <t>8562</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,16 +689,39 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>330</v>
+        <v>249</v>
       </c>
       <c r="D11" t="n">
-        <v>170600</v>
+        <v>601600</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>9812</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>327</v>
+      </c>
+      <c r="D12" t="n">
+        <v>202200</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/08/20/parabolic.xlsx
+++ b/parabolic/2025/08/20/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2652</t>
+          <t>2112</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>331</v>
+        <v>403</v>
       </c>
       <c r="D2" t="n">
-        <v>266800</v>
+        <v>236100</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -496,7 +496,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>3083</t>
+          <t>2652</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>789</v>
+        <v>329</v>
       </c>
       <c r="D3" t="n">
-        <v>166000</v>
+        <v>379200</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>3656</t>
+          <t>3083</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>135</v>
+        <v>785</v>
       </c>
       <c r="D4" t="n">
-        <v>2388500</v>
+        <v>187900</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -542,7 +542,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>3671</t>
+          <t>3656</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>339</v>
+        <v>134</v>
       </c>
       <c r="D5" t="n">
-        <v>196800</v>
+        <v>2804200</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -565,7 +565,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>3880</t>
+          <t>3671</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>868</v>
+        <v>336</v>
       </c>
       <c r="D6" t="n">
-        <v>277500</v>
+        <v>223300</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -588,7 +588,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>4188</t>
+          <t>3880</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>802.9000244140625</v>
+        <v>866</v>
       </c>
       <c r="D7" t="n">
-        <v>3640700</v>
+        <v>347600</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>4996</t>
+          <t>4188</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>851</v>
+        <v>803.0999755859375</v>
       </c>
       <c r="D8" t="n">
-        <v>362700</v>
+        <v>5223800</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>6047</t>
+          <t>4996</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>710</v>
+        <v>853</v>
       </c>
       <c r="D9" t="n">
-        <v>233600</v>
+        <v>521400</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>7066</t>
+          <t>5137</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,10 +666,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>673</v>
+        <v>508</v>
       </c>
       <c r="D10" t="n">
-        <v>496300</v>
+        <v>439800</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,7 +680,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>8562</t>
+          <t>6047</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -689,10 +689,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>249</v>
+        <v>704</v>
       </c>
       <c r="D11" t="n">
-        <v>601600</v>
+        <v>335000</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>9812</t>
+          <t>7066</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -712,16 +712,85 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>327</v>
+        <v>670</v>
       </c>
       <c r="D12" t="n">
-        <v>202200</v>
+        <v>669000</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>8562</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>247</v>
+      </c>
+      <c r="D13" t="n">
+        <v>704700</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>9812</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>328</v>
+      </c>
+      <c r="D14" t="n">
+        <v>212200</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>9831</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-08-20</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>466.8999938964844</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2804600</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
